--- a/300_iir_llpf_calc.xlsx
+++ b/300_iir_llpf_calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="13785" yWindow="1080" windowWidth="13800" windowHeight="15675" activeTab="1"/>
+    <workbookView xWindow="13785" yWindow="1080" windowWidth="13800" windowHeight="15675"/>
   </bookViews>
   <sheets>
     <sheet name="LoopFilter LPF" sheetId="4" r:id="rId1"/>
@@ -501,225 +501,13 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>57600</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <f>2*PI()*B2</f>
-        <v>144.51326206513048</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <f>1/B3</f>
-        <v>1.7361111111111111E-5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <f>(2*B3)*TAN(B4*B5/2)</f>
-        <v>144.51333787001207</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <f>B6*B5</f>
-        <v>2.5089121157988205E-3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <f>2+(B8)</f>
-        <v>2.0025089121157986</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <f>2-B8</f>
-        <v>1.9974910878842012</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <f>B10/B9</f>
-        <v>0.99749423126097558</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <f>B8/B9</f>
-        <v>1.2528843695122282E-3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <f>B8/B9</f>
-        <v>1.2528843695122282E-3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17">
-        <f>POWER(2,B16)</f>
-        <v>32768</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18">
-        <f>ROUND(B17*B13,0)</f>
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19">
-        <f>ROUND(B17*B14,0)</f>
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20">
-        <f>ROUND(B17*B12,0)</f>
-        <v>32686</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -745,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -756,7 +544,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>57600</v>
+        <v>28800</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -768,7 +556,7 @@
       </c>
       <c r="B4">
         <f>2*PI()*B2</f>
-        <v>1256.6370614359173</v>
+        <v>628.31853071795865</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -780,7 +568,7 @@
       </c>
       <c r="B5">
         <f>1/B3</f>
-        <v>1.7361111111111111E-5</v>
+        <v>3.4722222222222222E-5</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -795,7 +583,7 @@
       </c>
       <c r="B6">
         <f>(2*B3)*TAN(B4*B5/2)</f>
-        <v>1256.6869067171363</v>
+        <v>628.34345335856813</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -918,6 +706,218 @@
       <c r="B20">
         <f>ROUND(B17*B12,0)</f>
         <v>32061</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>28800</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>2*PI()*B2</f>
+        <v>1099.5574287564275</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f>1/B3</f>
+        <v>3.4722222222222222E-5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f>(2*B3)*TAN(B4*B5/2)</f>
+        <v>1099.691011647627</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <f>B6*B5</f>
+        <v>3.8183715682209268E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <f>2+(B8)</f>
+        <v>2.0381837156822091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <f>2-B8</f>
+        <v>1.9618162843177906</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <f>B10/B9</f>
+        <v>0.96253162520295321</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <f>B8/B9</f>
+        <v>1.8734187398523412E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <f>B8/B9</f>
+        <v>1.8734187398523412E-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <f>POWER(2,B16)</f>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <f>ROUND(B17*B13,0)</f>
+        <v>614</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <f>ROUND(B17*B14,0)</f>
+        <v>614</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <f>ROUND(B17*B12,0)</f>
+        <v>31540</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>

--- a/300_iir_llpf_calc.xlsx
+++ b/300_iir_llpf_calc.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204A4F9A-0A14-454E-B4CB-88D56DD671A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13785" yWindow="1080" windowWidth="13800" windowHeight="15675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoopFilter LPF" sheetId="4" r:id="rId1"/>
@@ -12,9 +18,9 @@
     <sheet name="2nd order LPFz" sheetId="1" r:id="rId3"/>
     <sheet name="LFz" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -146,8 +152,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -255,7 +261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -307,7 +313,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -501,34 +507,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -539,7 +545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -550,7 +556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -562,7 +568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -577,7 +583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -592,7 +598,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -604,7 +610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -613,7 +619,7 @@
         <v>2.0218174810193945</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -622,7 +628,7 @@
         <v>1.9781825189806053</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -634,7 +640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -646,7 +652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -658,7 +664,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -666,7 +672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -675,7 +681,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -687,7 +693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -699,7 +705,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -720,38 +726,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>175</v>
+        <v>600</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -762,19 +768,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <f>2*PI()*B2</f>
-        <v>1099.5574287564275</v>
+        <v>3769.9111843077517</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -789,13 +795,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <f>(2*B3)*TAN(B4*B5/2)</f>
-        <v>1099.691011647627</v>
+        <v>3775.3034581577217</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -804,73 +810,73 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
         <f>B6*B5</f>
-        <v>3.8183715682209268E-2</v>
+        <v>0.13108692563047644</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
         <f>2+(B8)</f>
-        <v>2.0381837156822091</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>2.1310869256304765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10">
         <f>2-B8</f>
-        <v>1.9618162843177906</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>1.8689130743695235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
         <f>B10/B9</f>
-        <v>0.96253162520295321</v>
+        <v>0.87697646299275678</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13">
         <f>B8/B9</f>
-        <v>1.8734187398523412E-2</v>
+        <v>6.1511768503621556E-2</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
         <f>B8/B9</f>
-        <v>1.8734187398523412E-2</v>
+        <v>6.1511768503621556E-2</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -878,7 +884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -887,37 +893,37 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18">
         <f>ROUND(B17*B13,0)</f>
-        <v>614</v>
+        <v>2016</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19">
         <f>ROUND(B17*B14,0)</f>
-        <v>614</v>
+        <v>2016</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20">
         <f>ROUND(B17*B12,0)</f>
-        <v>31540</v>
+        <v>28737</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -932,27 +938,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -963,7 +969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -974,7 +980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -986,7 +992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1001,7 +1007,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1016,7 +1022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1028,7 +1034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1037,7 +1043,7 @@
         <v>2.3078294421196581</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1046,7 +1052,7 @@
         <v>1.6921705578803419</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17.25">
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1057,7 +1063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.25">
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1065,7 +1071,7 @@
         <v>0.64930619341182005</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1077,7 +1083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1089,7 +1095,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1098,7 +1104,7 @@
         <v>1.9083729945233441E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1106,7 +1112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1115,7 +1121,7 @@
         <v>16384</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1127,7 +1133,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1139,7 +1145,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1148,7 +1154,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1160,7 +1166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1178,39 +1184,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>480</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1221,19 +1227,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <f>2*PI()*B2</f>
-        <v>3015.9289474462012</v>
+        <v>628.31853071795865</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1248,13 +1254,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <f>(2*B3)*TAN(B4*B5/2)</f>
-        <v>3018.6880867031732</v>
+        <v>628.34345335856813</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1263,43 +1269,43 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
         <f>B6*B5</f>
-        <v>0.10481555856608241</v>
+        <v>2.1817481019394725E-2</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
         <f>2+(B8)</f>
-        <v>2.1048155585660826</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>2.0218174810193945</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
       <c r="B10">
         <f>B8-2</f>
-        <v>-1.8951844414339176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-1.9781825189806053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
       <c r="B11">
         <f>1/(2*B6)</f>
-        <v>1.6563486708097406E-4</v>
+        <v>7.9574315181839229E-4</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1308,16 +1314,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12">
         <f>B11*1000000</f>
-        <v>165.63486708097406</v>
+        <v>795.74315181839233</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1328,90 +1334,90 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15">
         <f>B9</f>
-        <v>2.1048155585660826</v>
+        <v>2.0218174810193945</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
         <f>B10</f>
-        <v>-1.8951844414339176</v>
+        <v>-1.9781825189806053</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
       <c r="B19">
         <f>POWER(2,B18)</f>
-        <v>32768</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20">
         <f>ROUND(B19*B15,0)</f>
-        <v>68971</v>
+        <v>16563</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21">
         <f>ROUND(B16*B19,0)</f>
-        <v>-62101</v>
+        <v>-16205</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22">
         <f>ROUND(B19*B14,0)</f>
-        <v>32768</v>
+        <v>8192</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23">
         <f>1/(B11*B6*2)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/300_iir_llpf_calc.xlsx
+++ b/300_iir_llpf_calc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204A4F9A-0A14-454E-B4CB-88D56DD671A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD65618A-B2EB-0247-A585-887C0E6594D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoopFilter LPF" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="37">
   <si>
     <t>cutoff freq</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>a2 scaled</t>
+  </si>
+  <si>
+    <t>Gain</t>
   </si>
 </sst>
 </file>
@@ -515,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -666,54 +669,62 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
         <v>8</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17">
-        <f>POWER(2,B16)</f>
-        <v>32768</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <f>ROUND(B17*B13,0)</f>
-        <v>354</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <f>ROUND(B17*B14,0)</f>
-        <v>354</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
+        <f>POWER(2,B18)</f>
+        <v>32768</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <f>ROUND(B19*B13*B16,0)</f>
+        <v>2829</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <f>ROUND(B19*B14*B16,0)</f>
+        <v>2829</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B20">
-        <f>ROUND(B17*B12,0)</f>
+      <c r="B22">
+        <f>ROUND(B19*B12,0)</f>
         <v>32061</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D22" t="s">
         <v>20</v>
       </c>
     </row>
@@ -727,10 +738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -878,54 +889,62 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17">
-        <f>POWER(2,B16)</f>
-        <v>32768</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <f>ROUND(B17*B13,0)</f>
-        <v>2016</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <f>ROUND(B17*B14,0)</f>
-        <v>2016</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
+        <f>POWER(2,B18)</f>
+        <v>32768</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <f>ROUND(B19*B13*B16,0)</f>
+        <v>8062</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <f>ROUND(B19*B14*B16,0)</f>
+        <v>8062</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B20">
-        <f>ROUND(B17*B12,0)</f>
+      <c r="B22">
+        <f>ROUND(B19*B12,0)</f>
         <v>28737</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D22" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1187,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1384,7 +1403,7 @@
         <v>16563</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1408,7 +1427,7 @@
         <v>8192</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">

--- a/300_iir_llpf_calc.xlsx
+++ b/300_iir_llpf_calc.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD65618A-B2EB-0247-A585-887C0E6594D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955878D5-8D44-DA4F-9EC7-84057CF228E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoopFilter LPF" sheetId="4" r:id="rId1"/>
-    <sheet name="Branch LPF" sheetId="3" r:id="rId2"/>
-    <sheet name="2nd order LPFz" sheetId="1" r:id="rId3"/>
-    <sheet name="LFz" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Branch LPF" sheetId="3" r:id="rId3"/>
+    <sheet name="2nd order LPFz" sheetId="1" r:id="rId4"/>
+    <sheet name="LFz" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="49">
   <si>
     <t>cutoff freq</t>
   </si>
@@ -150,6 +151,42 @@
   </si>
   <si>
     <t>Gain</t>
+  </si>
+  <si>
+    <t>B0=b0^2</t>
+  </si>
+  <si>
+    <t>B1=2b0b1</t>
+  </si>
+  <si>
+    <t>B2=b1^2</t>
+  </si>
+  <si>
+    <t>First Order system</t>
+  </si>
+  <si>
+    <t>Second Order system</t>
+  </si>
+  <si>
+    <t>A1=2a1</t>
+  </si>
+  <si>
+    <t>A2=-a1^2</t>
+  </si>
+  <si>
+    <t>B0_scaled</t>
+  </si>
+  <si>
+    <t>B1_scaled</t>
+  </si>
+  <si>
+    <t>B2_scaled</t>
+  </si>
+  <si>
+    <t>A1_scaled</t>
+  </si>
+  <si>
+    <t>A2_scaled</t>
   </si>
 </sst>
 </file>
@@ -198,10 +235,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -520,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -672,7 +712,7 @@
         <v>36</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -698,7 +738,7 @@
       </c>
       <c r="B20">
         <f>ROUND(B19*B13*B16,0)</f>
-        <v>2829</v>
+        <v>354</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -710,7 +750,7 @@
       </c>
       <c r="B21">
         <f>ROUND(B19*B14*B16,0)</f>
-        <v>2829</v>
+        <v>354</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -737,11 +777,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0218B47B-13FF-3F43-B902-FE92EE5440FF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -887,76 +939,235 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <f>POWER(2,B18)</f>
-        <v>32768</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B20">
-        <f>ROUND(B19*B13*B16,0)</f>
-        <v>8062</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B21">
-        <f>ROUND(B19*B14*B16,0)</f>
-        <v>8062</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
+        <f>POWER(2,B20)</f>
+        <v>32768</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <f>ROUND(B21*B13*B18,0)</f>
+        <v>8062</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <f>ROUND(B21*B14*B18,0)</f>
+        <v>8062</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B22">
-        <f>ROUND(B19*B12,0)</f>
+      <c r="B24">
+        <f>ROUND(B21*B12,0)</f>
         <v>28737</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <f>B13*B13</f>
+        <v>3.7836976644431289E-3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <f>2*B13*B14</f>
+        <v>7.5673953288862578E-3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <f>B14*B14</f>
+        <v>3.7836976644431289E-3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <f>2*B12</f>
+        <v>1.7539529259855136</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <f>-B12*B12</f>
+        <v>-0.76908771664328612</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <f>2^B36</f>
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38">
+        <f>ROUND(B29*B27*B37,0)</f>
+        <v>124</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <f>ROUND(B30*B27*B37,0)</f>
+        <v>248</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40">
+        <f>ROUND(B31*B27*B37,0)</f>
+        <v>124</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41">
+        <f>ROUND(B33*B37,0)</f>
+        <v>28737</v>
+      </c>
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42">
+        <f>ROUND(B34*B37,0)</f>
+        <v>-12601</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -1202,7 +1413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>

--- a/300_iir_llpf_calc.xlsx
+++ b/300_iir_llpf_calc.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955878D5-8D44-DA4F-9EC7-84057CF228E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="LoopFilter LPF" sheetId="4" r:id="rId1"/>
@@ -18,10 +12,11 @@
     <sheet name="Branch LPF" sheetId="3" r:id="rId3"/>
     <sheet name="2nd order LPFz" sheetId="1" r:id="rId4"/>
     <sheet name="LFz" sheetId="2" r:id="rId5"/>
+    <sheet name="Branch LPF QPSK" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="49">
   <si>
     <t>cutoff freq</t>
   </si>
@@ -192,8 +187,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -304,7 +299,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -356,7 +351,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -550,34 +545,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -588,7 +583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -599,7 +594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -611,7 +606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -626,7 +621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -641,7 +636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -653,7 +648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -662,7 +657,7 @@
         <v>2.0218174810193945</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -671,7 +666,7 @@
         <v>1.9781825189806053</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -683,7 +678,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -695,7 +690,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -707,15 +702,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>36</v>
       </c>
       <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -723,7 +718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -732,31 +727,31 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20">
         <f>ROUND(B19*B13*B16,0)</f>
-        <v>354</v>
+        <v>2829</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21">
         <f>ROUND(B19*B14*B16,0)</f>
-        <v>354</v>
+        <v>2829</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -777,39 +772,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0218B47B-13FF-3F43-B902-FE92EE5440FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -820,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -831,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -843,7 +838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -858,7 +853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -873,7 +868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -885,7 +880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -894,7 +889,7 @@
         <v>2.1310869256304765</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -903,7 +898,7 @@
         <v>1.8689130743695235</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -915,7 +910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -927,7 +922,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -939,13 +934,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -953,7 +948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -961,7 +956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -970,7 +965,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -982,7 +977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -994,7 +989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1006,13 +1001,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1020,7 +1015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1032,7 +1027,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1044,7 +1039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1056,7 +1051,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1068,7 +1063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -1080,7 +1075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1088,7 +1083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1097,7 +1092,7 @@
         <v>16384</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1109,7 +1104,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1121,7 +1116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1133,7 +1128,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1145,7 +1140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1168,27 +1163,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1199,7 +1194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1210,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1222,7 +1217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1237,7 +1232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1252,7 +1247,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1264,7 +1259,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1273,7 +1268,7 @@
         <v>2.3078294421196581</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1282,7 +1277,7 @@
         <v>1.6921705578803419</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="17.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1293,7 +1288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="17.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1301,7 +1296,7 @@
         <v>0.64930619341182005</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1313,7 +1308,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1325,7 +1320,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1334,7 +1329,7 @@
         <v>1.9083729945233441E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1342,7 +1337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1351,7 +1346,7 @@
         <v>16384</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1363,7 +1358,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1375,7 +1370,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1384,7 +1379,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1396,7 +1391,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1414,28 +1409,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1446,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1457,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1469,7 +1464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1484,7 +1479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1499,7 +1494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1511,7 +1506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1520,7 +1515,7 @@
         <v>2.0218174810193945</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1529,7 +1524,7 @@
         <v>-1.9781825189806053</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1544,7 +1539,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="B12">
         <f>B11*1000000</f>
         <v>795.74315181839233</v>
@@ -1553,7 +1548,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1564,7 +1559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1576,7 +1571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1588,7 +1583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1596,7 +1591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1605,7 +1600,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1617,7 +1612,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1629,7 +1624,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1641,7 +1636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1656,4 +1651,383 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>600</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>28800</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>2*PI()*B2</f>
+        <v>3769.9111843077517</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f>1/B3</f>
+        <v>3.4722222222222222E-5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f>(2*B3)*TAN(B4*B5/2)</f>
+        <v>3775.3034581577217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <f>B6*B5</f>
+        <v>0.13108692563047644</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <f>2+(B8)</f>
+        <v>2.1310869256304765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <f>2-B8</f>
+        <v>1.8689130743695235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <f>B10/B9</f>
+        <v>0.87697646299275678</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <f>B8/B9</f>
+        <v>6.1511768503621556E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <f>B8/B9</f>
+        <v>6.1511768503621556E-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <f>POWER(2,B20)</f>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <f>ROUND(B21*B13*B18,0)</f>
+        <v>2016</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <f>ROUND(B21*B14*B18,0)</f>
+        <v>2016</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <f>ROUND(B21*B12,0)</f>
+        <v>28737</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <f>B13*B13</f>
+        <v>3.7836976644431289E-3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <f>2*B13*B14</f>
+        <v>7.5673953288862578E-3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <f>B14*B14</f>
+        <v>3.7836976644431289E-3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <f>2*B12</f>
+        <v>1.7539529259855136</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <f>-B12*B12</f>
+        <v>-0.76908771664328612</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <f>2^B36</f>
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38">
+        <f>ROUND(B29*B27*B37,0)</f>
+        <v>124</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <f>ROUND(B30*B27*B37,0)</f>
+        <v>248</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40">
+        <f>ROUND(B31*B27*B37,0)</f>
+        <v>124</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41">
+        <f>ROUND(B33*B37,0)</f>
+        <v>28737</v>
+      </c>
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42">
+        <f>ROUND(B34*B37,0)</f>
+        <v>-12601</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A26:B26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/300_iir_llpf_calc.xlsx
+++ b/300_iir_llpf_calc.xlsx
@@ -556,7 +556,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -588,7 +588,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>28800</v>
+        <v>14400</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -600,7 +600,7 @@
       </c>
       <c r="B4">
         <f>2*PI()*B2</f>
-        <v>628.31853071795865</v>
+        <v>314.15926535897933</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -612,7 +612,7 @@
       </c>
       <c r="B5">
         <f>1/B3</f>
-        <v>3.4722222222222222E-5</v>
+        <v>6.9444444444444444E-5</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -627,7 +627,7 @@
       </c>
       <c r="B6">
         <f>(2*B3)*TAN(B4*B5/2)</f>
-        <v>628.34345335856813</v>
+        <v>314.17172667928406</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>

--- a/300_iir_llpf_calc.xlsx
+++ b/300_iir_llpf_calc.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CEC950-296D-7340-9601-76198A5395B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="15220" yWindow="120" windowWidth="13580" windowHeight="17880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoopFilter LPF" sheetId="4" r:id="rId1"/>
@@ -14,9 +20,9 @@
     <sheet name="LFz" sheetId="2" r:id="rId5"/>
     <sheet name="Branch LPF QPSK" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="49">
   <si>
     <t>cutoff freq</t>
   </si>
@@ -187,8 +193,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -208,6 +214,14 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -230,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -239,6 +253,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,34 +561,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -583,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -594,7 +610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -606,7 +622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -621,7 +637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -636,7 +652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -648,7 +664,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -657,7 +673,7 @@
         <v>2.0218174810193945</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -666,7 +682,7 @@
         <v>1.9781825189806053</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -678,7 +694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -690,7 +706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -702,7 +718,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -710,7 +726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -718,7 +734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -727,7 +743,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -739,7 +755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -751,7 +767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -772,39 +788,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -815,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -826,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -838,7 +854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -853,7 +869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -868,7 +884,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -880,7 +896,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -889,7 +905,7 @@
         <v>2.1310869256304765</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -898,7 +914,7 @@
         <v>1.8689130743695235</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -910,7 +926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -922,7 +938,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -934,29 +950,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -965,11 +981,11 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <f>ROUND(B21*B13*B18,0)</f>
         <v>8062</v>
       </c>
@@ -977,11 +993,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <f>ROUND(B21*B14*B18,0)</f>
         <v>8062</v>
       </c>
@@ -989,11 +1005,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <f>ROUND(B21*B12,0)</f>
         <v>28737</v>
       </c>
@@ -1001,189 +1017,41 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29">
-        <f>B13*B13</f>
-        <v>3.7836976644431289E-3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30">
-        <f>2*B13*B14</f>
-        <v>7.5673953288862578E-3</v>
-      </c>
-      <c r="D30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31">
-        <f>B14*B14</f>
-        <v>3.7836976644431289E-3</v>
-      </c>
-      <c r="D31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33">
-        <f>2*B12</f>
-        <v>1.7539529259855136</v>
-      </c>
-      <c r="D33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34">
-        <f>-B12*B12</f>
-        <v>-0.76908771664328612</v>
-      </c>
-      <c r="D34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37">
-        <f>2^B36</f>
-        <v>16384</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38">
-        <f>ROUND(B29*B27*B37,0)</f>
-        <v>124</v>
-      </c>
-      <c r="D38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <f>ROUND(B30*B27*B37,0)</f>
-        <v>248</v>
-      </c>
-      <c r="D39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40">
-        <f>ROUND(B31*B27*B37,0)</f>
-        <v>124</v>
-      </c>
-      <c r="D40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41">
-        <f>ROUND(B33*B37,0)</f>
-        <v>28737</v>
-      </c>
-      <c r="D41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42">
-        <f>ROUND(B34*B37,0)</f>
-        <v>-12601</v>
-      </c>
-      <c r="D42" t="s">
-        <v>20</v>
-      </c>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1194,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1205,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1217,7 +1085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1232,7 +1100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1247,7 +1115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1259,7 +1127,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1268,7 +1136,7 @@
         <v>2.3078294421196581</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1277,7 +1145,7 @@
         <v>1.6921705578803419</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17.25">
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1288,7 +1156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.25">
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1296,7 +1164,7 @@
         <v>0.64930619341182005</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1308,7 +1176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1320,7 +1188,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1329,7 +1197,7 @@
         <v>1.9083729945233441E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1337,7 +1205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1346,7 +1214,7 @@
         <v>16384</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1358,7 +1226,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1370,7 +1238,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1379,7 +1247,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1391,7 +1259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1409,28 +1277,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1452,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1464,7 +1332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1479,7 +1347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1494,7 +1362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1506,7 +1374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1515,7 +1383,7 @@
         <v>2.0218174810193945</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1524,7 +1392,7 @@
         <v>-1.9781825189806053</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1539,7 +1407,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12">
         <f>B11*1000000</f>
         <v>795.74315181839233</v>
@@ -1548,7 +1416,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1559,7 +1427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1571,7 +1439,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1583,7 +1451,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1591,7 +1459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1600,7 +1468,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1612,7 +1480,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1624,7 +1492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1636,7 +1504,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1654,27 +1522,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1685,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1696,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1708,7 +1576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1723,7 +1591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1738,7 +1606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1750,7 +1618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1759,7 +1627,7 @@
         <v>2.1310869256304765</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1768,7 +1636,7 @@
         <v>1.8689130743695235</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1780,7 +1648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1792,7 +1660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1804,13 +1672,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1818,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1826,7 +1694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1835,7 +1703,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1847,7 +1715,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1859,7 +1727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1871,13 +1739,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1885,7 +1753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1897,7 +1765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1909,7 +1777,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1921,7 +1789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1933,7 +1801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -1945,7 +1813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1953,7 +1821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1962,7 +1830,7 @@
         <v>16384</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1974,7 +1842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1986,7 +1854,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1998,7 +1866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2010,7 +1878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>48</v>
       </c>

--- a/300_iir_llpf_calc.xlsx
+++ b/300_iir_llpf_calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="15225" yWindow="120" windowWidth="13575" windowHeight="17880" activeTab="1"/>
+    <workbookView xWindow="15225" yWindow="120" windowWidth="13575" windowHeight="17880"/>
   </bookViews>
   <sheets>
     <sheet name="LoopFilter LPF" sheetId="4" r:id="rId1"/>
@@ -478,7 +478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -488,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -533,7 +533,7 @@
       </c>
       <c r="B4">
         <f>2*PI()*B2</f>
-        <v>314.15926535897933</v>
+        <v>904.77868423386042</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -560,7 +560,7 @@
       </c>
       <c r="B6">
         <f>(2*B3)*TAN(B4*B5/2)</f>
-        <v>314.17172667928406</v>
+        <v>905.07646204851312</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -575,7 +575,7 @@
       </c>
       <c r="B8">
         <f>B6*B5</f>
-        <v>2.1817481019394725E-2</v>
+        <v>6.2852532086702301E-2</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -587,7 +587,7 @@
       </c>
       <c r="B9">
         <f>2+(B8)</f>
-        <v>2.0218174810193945</v>
+        <v>2.0628525320867022</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -596,7 +596,7 @@
       </c>
       <c r="B10">
         <f>2-B8</f>
-        <v>1.9781825189806053</v>
+        <v>1.9371474679132976</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -605,7 +605,7 @@
       </c>
       <c r="B12">
         <f>B10/B9</f>
-        <v>0.97841795194253212</v>
+        <v>0.9390625058174924</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="B13">
         <f>B8/B9</f>
-        <v>1.0791024028733996E-2</v>
+        <v>3.0468747091253828E-2</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -629,7 +629,7 @@
       </c>
       <c r="B14">
         <f>B8/B9</f>
-        <v>1.0791024028733996E-2</v>
+        <v>3.0468747091253828E-2</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -666,7 +666,7 @@
       </c>
       <c r="B20" s="2">
         <f>ROUND(B19*B13*B16,0)</f>
-        <v>354</v>
+        <v>998</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -678,7 +678,7 @@
       </c>
       <c r="B21" s="2">
         <f>ROUND(B19*B14*B16,0)</f>
-        <v>354</v>
+        <v>998</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -690,7 +690,7 @@
       </c>
       <c r="B22" s="2">
         <f>ROUND(B19*B12,0)</f>
-        <v>32061</v>
+        <v>30771</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -709,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>

--- a/300_iir_llpf_calc.xlsx
+++ b/300_iir_llpf_calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="15225" yWindow="120" windowWidth="13575" windowHeight="17880"/>
+    <workbookView xWindow="15225" yWindow="120" windowWidth="13575" windowHeight="17880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoopFilter LPF" sheetId="4" r:id="rId1"/>
@@ -478,7 +478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -488,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -521,7 +521,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>14400</v>
+        <v>7200</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -533,7 +533,7 @@
       </c>
       <c r="B4">
         <f>2*PI()*B2</f>
-        <v>904.77868423386042</v>
+        <v>314.15926535897933</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -545,7 +545,7 @@
       </c>
       <c r="B5">
         <f>1/B3</f>
-        <v>6.9444444444444444E-5</v>
+        <v>1.3888888888888889E-4</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -560,7 +560,7 @@
       </c>
       <c r="B6">
         <f>(2*B3)*TAN(B4*B5/2)</f>
-        <v>905.07646204851312</v>
+        <v>314.20911775895246</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -575,7 +575,7 @@
       </c>
       <c r="B8">
         <f>B6*B5</f>
-        <v>6.2852532086702301E-2</v>
+        <v>4.3640155244298956E-2</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -587,7 +587,7 @@
       </c>
       <c r="B9">
         <f>2+(B8)</f>
-        <v>2.0628525320867022</v>
+        <v>2.0436401552442991</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -596,7 +596,7 @@
       </c>
       <c r="B10">
         <f>2-B8</f>
-        <v>1.9371474679132976</v>
+        <v>1.9563598447557011</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -605,7 +605,7 @@
       </c>
       <c r="B12">
         <f>B10/B9</f>
-        <v>0.9390625058174924</v>
+        <v>0.95729174225480784</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="B13">
         <f>B8/B9</f>
-        <v>3.0468747091253828E-2</v>
+        <v>2.1354128872596048E-2</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -629,7 +629,7 @@
       </c>
       <c r="B14">
         <f>B8/B9</f>
-        <v>3.0468747091253828E-2</v>
+        <v>2.1354128872596048E-2</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -666,7 +666,7 @@
       </c>
       <c r="B20" s="2">
         <f>ROUND(B19*B13*B16,0)</f>
-        <v>998</v>
+        <v>700</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -678,7 +678,7 @@
       </c>
       <c r="B21" s="2">
         <f>ROUND(B19*B14*B16,0)</f>
-        <v>998</v>
+        <v>700</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -690,7 +690,7 @@
       </c>
       <c r="B22" s="2">
         <f>ROUND(B19*B12,0)</f>
-        <v>30771</v>
+        <v>31369</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -742,7 +742,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>14400</v>
+        <v>7200</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -766,7 +766,7 @@
       </c>
       <c r="B5">
         <f>1/B3</f>
-        <v>6.9444444444444444E-5</v>
+        <v>1.3888888888888889E-4</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -781,7 +781,7 @@
       </c>
       <c r="B6">
         <f>(2*B3)*TAN(B4*B5/2)</f>
-        <v>1887.6517290788609</v>
+        <v>1895.7959652585</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -796,7 +796,7 @@
       </c>
       <c r="B8">
         <f>B6*B5</f>
-        <v>0.13108692563047644</v>
+        <v>0.26330499517479167</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -808,7 +808,7 @@
       </c>
       <c r="B9">
         <f>2+(B8)</f>
-        <v>2.1310869256304765</v>
+        <v>2.2633049951747917</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -817,7 +817,7 @@
       </c>
       <c r="B10">
         <f>2-B8</f>
-        <v>1.8689130743695235</v>
+        <v>1.7366950048252083</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -826,7 +826,7 @@
       </c>
       <c r="B12">
         <f>B10/B9</f>
-        <v>0.87697646299275678</v>
+        <v>0.76732698797896037</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -838,7 +838,7 @@
       </c>
       <c r="B13">
         <f>B8/B9</f>
-        <v>6.1511768503621556E-2</v>
+        <v>0.11633650601051981</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -850,7 +850,7 @@
       </c>
       <c r="B14">
         <f>B8/B9</f>
-        <v>6.1511768503621556E-2</v>
+        <v>0.11633650601051981</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -893,7 +893,7 @@
       </c>
       <c r="B22" s="2">
         <f>ROUND(B21*B13*B18,0)</f>
-        <v>8062</v>
+        <v>15248</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -905,7 +905,7 @@
       </c>
       <c r="B23" s="2">
         <f>ROUND(B21*B14*B18,0)</f>
-        <v>8062</v>
+        <v>15248</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -917,7 +917,7 @@
       </c>
       <c r="B24" s="2">
         <f>ROUND(B21*B12,0)</f>
-        <v>28737</v>
+        <v>25144</v>
       </c>
       <c r="D24" t="s">
         <v>20</v>

--- a/300_iir_llpf_calc.xlsx
+++ b/300_iir_llpf_calc.xlsx
@@ -478,7 +478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -710,7 +710,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -867,7 +867,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -893,7 +893,7 @@
       </c>
       <c r="B22" s="2">
         <f>ROUND(B21*B13*B18,0)</f>
-        <v>15248</v>
+        <v>7624</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -905,7 +905,7 @@
       </c>
       <c r="B23" s="2">
         <f>ROUND(B21*B14*B18,0)</f>
-        <v>15248</v>
+        <v>7624</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>

--- a/300_iir_llpf_calc.xlsx
+++ b/300_iir_llpf_calc.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D44229B-E9F7-C541-8F04-C63C44C4B917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15225" yWindow="120" windowWidth="13575" windowHeight="17880" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoopFilter LPF" sheetId="4" r:id="rId1"/>
     <sheet name="Branch LPF" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -117,8 +123,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -162,9 +168,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -478,56 +483,56 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>7200</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -539,7 +544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -554,13 +559,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <f>(2*B3)*TAN(B4*B5/2)</f>
-        <v>314.20911775895246</v>
+        <v>314.2091177589524</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -569,19 +574,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
         <f>B6*B5</f>
-        <v>4.3640155244298956E-2</v>
+        <v>4.3640155244298942E-2</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -590,7 +595,7 @@
         <v>2.0436401552442991</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -599,7 +604,7 @@
         <v>1.9563598447557011</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -611,39 +616,39 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13">
         <f>B8/B9</f>
-        <v>2.1354128872596048E-2</v>
+        <v>2.1354128872596041E-2</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
         <f>B8/B9</f>
-        <v>2.1354128872596048E-2</v>
+        <v>2.1354128872596041E-2</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -651,7 +656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -660,11 +665,11 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <f>ROUND(B19*B13*B16,0)</f>
         <v>700</v>
       </c>
@@ -672,11 +677,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <f>ROUND(B19*B14*B16,0)</f>
         <v>700</v>
       </c>
@@ -684,11 +689,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <f>ROUND(B19*B12,0)</f>
         <v>31369</v>
       </c>
@@ -706,49 +711,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>300</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>7200</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -760,7 +765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -775,7 +780,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -790,7 +795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -802,7 +807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -811,7 +816,7 @@
         <v>2.2633049951747917</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -820,7 +825,7 @@
         <v>1.7366950048252083</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -832,7 +837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -844,7 +849,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -856,29 +861,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -887,11 +892,11 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <f>ROUND(B21*B13*B18,0)</f>
         <v>7624</v>
       </c>
@@ -899,11 +904,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <f>ROUND(B21*B14*B18,0)</f>
         <v>7624</v>
       </c>
@@ -911,21 +916,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <f>ROUND(B21*B12,0)</f>
         <v>25144</v>
       </c>
       <c r="D24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/300_iir_llpf_calc.xlsx
+++ b/300_iir_llpf_calc.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D44229B-E9F7-C541-8F04-C63C44C4B917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="LoopFilter LPF" sheetId="4" r:id="rId1"/>
     <sheet name="Branch LPF" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -123,8 +117,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -483,45 +477,45 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -532,19 +526,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <f>2*PI()*B2</f>
-        <v>314.15926535897933</v>
+        <v>628.31853071795865</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -559,13 +553,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <f>(2*B3)*TAN(B4*B5/2)</f>
-        <v>314.2091177589524</v>
+        <v>628.71757788257366</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -574,73 +568,73 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
         <f>B6*B5</f>
-        <v>4.3640155244298942E-2</v>
+        <v>8.7321885817024117E-2</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
         <f>2+(B8)</f>
-        <v>2.0436401552442991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.0873218858170239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10">
         <f>2-B8</f>
-        <v>1.9563598447557011</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.9126781141829758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
         <f>B10/B9</f>
-        <v>0.95729174225480784</v>
+        <v>0.91633117401742348</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13">
         <f>B8/B9</f>
-        <v>2.1354128872596041E-2</v>
+        <v>4.183441299128831E-2</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
         <f>B8/B9</f>
-        <v>2.1354128872596041E-2</v>
+        <v>4.183441299128831E-2</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -648,7 +642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -656,7 +650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -665,37 +659,37 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="1">
         <f>ROUND(B19*B13*B16,0)</f>
-        <v>700</v>
+        <v>1371</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1">
         <f>ROUND(B19*B14*B16,0)</f>
-        <v>700</v>
+        <v>1371</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="1">
         <f>ROUND(B19*B12,0)</f>
-        <v>31369</v>
+        <v>30026</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -711,27 +705,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -742,7 +736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -753,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -765,7 +759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -780,7 +774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -795,7 +789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -807,7 +801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -816,7 +810,7 @@
         <v>2.2633049951747917</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -825,7 +819,7 @@
         <v>1.7366950048252083</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -837,7 +831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -849,7 +843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -861,13 +855,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -875,7 +869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -883,7 +877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -892,7 +886,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -904,7 +898,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -916,7 +910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>24</v>
       </c>

--- a/300_iir_llpf_calc.xlsx
+++ b/300_iir_llpf_calc.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -639,7 +639,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -665,7 +665,7 @@
       </c>
       <c r="B20" s="1">
         <f>ROUND(B19*B13*B16,0)</f>
-        <v>1371</v>
+        <v>2742</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -677,7 +677,7 @@
       </c>
       <c r="B21" s="1">
         <f>ROUND(B19*B14*B16,0)</f>
-        <v>1371</v>
+        <v>2742</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -709,7 +709,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -866,7 +866,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -892,7 +892,7 @@
       </c>
       <c r="B22" s="1">
         <f>ROUND(B21*B13*B18,0)</f>
-        <v>7624</v>
+        <v>15248</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -904,7 +904,7 @@
       </c>
       <c r="B23" s="1">
         <f>ROUND(B21*B14*B18,0)</f>
-        <v>7624</v>
+        <v>15248</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>

--- a/300_iir_llpf_calc.xlsx
+++ b/300_iir_llpf_calc.xlsx
@@ -477,7 +477,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -488,7 +488,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -520,7 +520,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>7200</v>
+        <v>14400</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -532,7 +532,7 @@
       </c>
       <c r="B4">
         <f>2*PI()*B2</f>
-        <v>628.31853071795865</v>
+        <v>1570.7963267948965</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -544,7 +544,7 @@
       </c>
       <c r="B5">
         <f>1/B3</f>
-        <v>1.3888888888888889E-4</v>
+        <v>6.9444444444444444E-5</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -559,7 +559,7 @@
       </c>
       <c r="B6">
         <f>(2*B3)*TAN(B4*B5/2)</f>
-        <v>628.71757788257366</v>
+        <v>1572.3557733236992</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -574,7 +574,7 @@
       </c>
       <c r="B8">
         <f>B6*B5</f>
-        <v>8.7321885817024117E-2</v>
+        <v>0.10919137314747911</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9">
         <f>2+(B8)</f>
-        <v>2.0873218858170239</v>
+        <v>2.1091913731474792</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -595,7 +595,7 @@
       </c>
       <c r="B10">
         <f>2-B8</f>
-        <v>1.9126781141829758</v>
+        <v>1.8908086268525208</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -604,7 +604,7 @@
       </c>
       <c r="B12">
         <f>B10/B9</f>
-        <v>0.91633117401742348</v>
+        <v>0.89646138843765855</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -616,7 +616,7 @@
       </c>
       <c r="B13">
         <f>B8/B9</f>
-        <v>4.183441299128831E-2</v>
+        <v>5.1769305781170671E-2</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -628,7 +628,7 @@
       </c>
       <c r="B14">
         <f>B8/B9</f>
-        <v>4.183441299128831E-2</v>
+        <v>5.1769305781170671E-2</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -639,7 +639,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -665,7 +665,7 @@
       </c>
       <c r="B20" s="1">
         <f>ROUND(B19*B13*B16,0)</f>
-        <v>2742</v>
+        <v>6786</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -677,7 +677,7 @@
       </c>
       <c r="B21" s="1">
         <f>ROUND(B19*B14*B16,0)</f>
-        <v>2742</v>
+        <v>6786</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -689,7 +689,7 @@
       </c>
       <c r="B22" s="1">
         <f>ROUND(B19*B12,0)</f>
-        <v>30026</v>
+        <v>29375</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
